--- a/output.xlsx
+++ b/output.xlsx
@@ -14,57 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>1.0</t>
+    <t>data length</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>data list</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -396,81 +354,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,25 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>data length</t>
   </si>
-  <si>
-    <t>data list</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,66 +356,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,16 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>data length</t>
+  </si>
+  <si>
+    <t>data list</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,19 +38,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -59,9 +79,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,15 +381,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="10" customHeight="1">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,22 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>data length</t>
-  </si>
-  <si>
-    <t>data list</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>TITLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,15 +33,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="25"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,7 +54,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,16 +62,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -381,72 +380,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="10" customHeight="1">
-      <c r="A2" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" ht="25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>